--- a/BalanceSheet/MA_bal.xlsx
+++ b/BalanceSheet/MA_bal.xlsx
@@ -4476,7 +4476,7 @@
         <v>1195000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1029000000.0</v>
+        <v>373000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1217000000.0</v>
@@ -4603,7 +4603,7 @@
         <v>12466000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>9289000000.0</v>
+        <v>8633000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>7735000000.0</v>
